--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N2">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P2">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q2">
-        <v>79.02575060685822</v>
+        <v>124.4128219929636</v>
       </c>
       <c r="R2">
-        <v>711.231755461724</v>
+        <v>1119.715397936672</v>
       </c>
       <c r="S2">
-        <v>0.5869068866533775</v>
+        <v>0.3675955769513106</v>
       </c>
       <c r="T2">
-        <v>0.5869068866533775</v>
+        <v>0.3675955769513106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N3">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P3">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q3">
-        <v>24.26962365301134</v>
+        <v>104.5128824696927</v>
       </c>
       <c r="R3">
-        <v>218.426612877102</v>
+        <v>940.6159422272341</v>
       </c>
       <c r="S3">
-        <v>0.1802451624825427</v>
+        <v>0.3087983434092029</v>
       </c>
       <c r="T3">
-        <v>0.1802451624825427</v>
+        <v>0.3087983434092029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>28.187806</v>
       </c>
       <c r="I4">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J4">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N4">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P4">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q4">
-        <v>14.11203089123644</v>
+        <v>25.54456652785422</v>
       </c>
       <c r="R4">
-        <v>127.008278021128</v>
+        <v>229.901098750688</v>
       </c>
       <c r="S4">
-        <v>0.1048069528113167</v>
+        <v>0.07547509589734074</v>
       </c>
       <c r="T4">
-        <v>0.1048069528113167</v>
+        <v>0.07547509589734076</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>28.187806</v>
       </c>
       <c r="I5">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J5">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N5">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P5">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q5">
-        <v>4.333950339982666</v>
+        <v>21.45869080452066</v>
       </c>
       <c r="R5">
-        <v>39.005553059844</v>
+        <v>193.128217240686</v>
       </c>
       <c r="S5">
-        <v>0.03218729694329314</v>
+        <v>0.06340278839872056</v>
       </c>
       <c r="T5">
-        <v>0.03218729694329314</v>
+        <v>0.06340278839872056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H6">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I6">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J6">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N6">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P6">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q6">
-        <v>9.751493976420001</v>
+        <v>33.43302365524978</v>
       </c>
       <c r="R6">
-        <v>87.76344578778001</v>
+        <v>300.897212897248</v>
       </c>
       <c r="S6">
-        <v>0.07242220321818922</v>
+        <v>0.09878267708189624</v>
       </c>
       <c r="T6">
-        <v>0.07242220321818922</v>
+        <v>0.09878267708189624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H7">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I7">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J7">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N7">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P7">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q7">
-        <v>2.99478444741</v>
+        <v>28.08538232566734</v>
       </c>
       <c r="R7">
-        <v>26.95306002669</v>
+        <v>252.768440931006</v>
       </c>
       <c r="S7">
-        <v>0.02224160609332853</v>
+        <v>0.08298230161908654</v>
       </c>
       <c r="T7">
-        <v>0.02224160609332853</v>
+        <v>0.08298230161908653</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H8">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I8">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J8">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.501929333333333</v>
+        <v>2.718682666666667</v>
       </c>
       <c r="N8">
-        <v>4.505788</v>
+        <v>8.156048</v>
       </c>
       <c r="O8">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="P8">
-        <v>0.7650463650777426</v>
+        <v>0.5434637507613679</v>
       </c>
       <c r="Q8">
-        <v>0.1225729535364444</v>
+        <v>0.5450405947857777</v>
       </c>
       <c r="R8">
-        <v>1.103156581828</v>
+        <v>4.905365353072</v>
       </c>
       <c r="S8">
-        <v>0.0009103223948592334</v>
+        <v>0.001610400830820274</v>
       </c>
       <c r="T8">
-        <v>0.0009103223948592333</v>
+        <v>0.001610400830820275</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H9">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I9">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J9">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.461258</v>
+        <v>2.283827</v>
       </c>
       <c r="N9">
-        <v>1.383774</v>
+        <v>6.851481</v>
       </c>
       <c r="O9">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386322</v>
       </c>
       <c r="P9">
-        <v>0.2349536349222574</v>
+        <v>0.4565362492386321</v>
       </c>
       <c r="Q9">
-        <v>0.03764341913266667</v>
+        <v>0.4578608756843333</v>
       </c>
       <c r="R9">
-        <v>0.3387907721939999</v>
+        <v>4.120747881159</v>
       </c>
       <c r="S9">
-        <v>0.0002795694030930752</v>
+        <v>0.001352815811622164</v>
       </c>
       <c r="T9">
-        <v>0.0002795694030930752</v>
+        <v>0.001352815811622164</v>
       </c>
     </row>
   </sheetData>
